--- a/Отчёт об эффективности СИТ Колонин/Отчёт об эффективности СИТ.xlsx
+++ b/Отчёт об эффективности СИТ Колонин/Отчёт об эффективности СИТ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Системы ИТ\Отчёт об эффективности СИТ Колонин\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\SIT\Отчёт об эффективности СИТ Колонин\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E338AB-7605-45C2-A666-A402E4650CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CFA45C-B707-4C68-A022-1C31226ACBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Компания</t>
   </si>
@@ -187,9 +187,6 @@
     <t>10 сотрудников</t>
   </si>
   <si>
-    <t>Стоимость внедрения</t>
-  </si>
-  <si>
     <t>Месяц</t>
   </si>
   <si>
@@ -275,6 +272,45 @@
   </si>
   <si>
     <t>CMS Tilda</t>
+  </si>
+  <si>
+    <t>Стоимость внедрения ЕКАМ</t>
+  </si>
+  <si>
+    <t>Стоимость внедрения Инфо-Бухгалтер</t>
+  </si>
+  <si>
+    <t>Стоимость внедрения amoCRM</t>
+  </si>
+  <si>
+    <t>Глеб</t>
+  </si>
+  <si>
+    <t>Инструменты для Бухгалтеров</t>
+  </si>
+  <si>
+    <t>Базовый Яндекс 360 на 3 сотрудников</t>
+  </si>
+  <si>
+    <t>ПО складского учета ЕКАМ с облачной кассой на год</t>
+  </si>
+  <si>
+    <t>в год</t>
+  </si>
+  <si>
+    <t>* 12 в год</t>
+  </si>
+  <si>
+    <t>*12 в год</t>
+  </si>
+  <si>
+    <t>Договора и взаимодействие с клиентами</t>
+  </si>
+  <si>
+    <t>Mas Project</t>
+  </si>
+  <si>
+    <t>Итого:</t>
   </si>
 </sst>
 </file>
@@ -282,7 +318,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -349,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -440,7 +482,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -452,23 +505,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -911,10 +954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD30134-F3FA-4385-98EF-7296467FA611}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -924,15 +967,15 @@
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
-        <v>42</v>
+      <c r="A1" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -944,60 +987,60 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="11">
         <v>20000</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="11">
         <v>90000</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="11">
         <v>120000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>26</v>
@@ -1008,215 +1051,318 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="18">
+        <v>34</v>
+      </c>
+      <c r="D11" s="11">
         <v>1200</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="11">
         <v>960</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="18">
+        <v>35</v>
+      </c>
+      <c r="D12" s="11">
         <v>2300</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="11">
         <v>1840</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="C17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="18">
+        <v>40</v>
+      </c>
+      <c r="D17" s="11">
         <v>4990</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="11">
         <v>9990</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="11">
         <v>14990</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="18">
+        <v>40</v>
+      </c>
+      <c r="B21" s="11">
         <f>D6+D11+D17</f>
         <v>26190</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="11">
         <f>F6+E11+D17*12</f>
         <v>180840</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="F21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="12"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11" t="s">
-        <v>43</v>
+      <c r="A23" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
+      <c r="A24" s="9"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="17" t="s">
-        <v>33</v>
+      <c r="A25" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="18">
+        <v>47</v>
+      </c>
+      <c r="B26" s="11">
         <v>13400</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="18">
+        <v>49</v>
+      </c>
+      <c r="B29" s="11">
         <v>2000</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="18">
+        <v>55</v>
+      </c>
+      <c r="B32" s="11">
         <v>2600</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="18">
+        <v>57</v>
+      </c>
+      <c r="B35" s="11">
         <v>2000</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="14"/>
+      <c r="A37" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="15"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="18">
+        <v>40</v>
+      </c>
+      <c r="B39" s="11">
         <f>B26+B29+B32+B35</f>
         <v>20000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="11">
+        <f>B44*12</f>
+        <v>24000</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="11">
+        <f>130*3</f>
+        <v>390</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="11">
+        <f>B47*12</f>
+        <v>4680</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1840</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="21">
+        <f>B45+B48+B50</f>
+        <v>30520</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Отчёт об эффективности СИТ Колонин/Отчёт об эффективности СИТ.xlsx
+++ b/Отчёт об эффективности СИТ Колонин/Отчёт об эффективности СИТ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\SIT\Отчёт об эффективности СИТ Колонин\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CFA45C-B707-4C68-A022-1C31226ACBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2786261-3E67-4C42-906F-B5326372EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14775" yWindow="7770" windowWidth="14970" windowHeight="9270" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Входные данные" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>Компания</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Инструменты для Бухгалтеров</t>
   </si>
   <si>
-    <t>Базовый Яндекс 360 на 3 сотрудников</t>
-  </si>
-  <si>
     <t>ПО складского учета ЕКАМ с облачной кассой на год</t>
   </si>
   <si>
@@ -304,13 +301,28 @@
     <t>*12 в год</t>
   </si>
   <si>
-    <t>Договора и взаимодействие с клиентами</t>
-  </si>
-  <si>
     <t>Mas Project</t>
   </si>
   <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>Инструменты менеджеров по продажам</t>
+  </si>
+  <si>
+    <t>•Сайт на Tilda или CMS WordPress</t>
+  </si>
+  <si>
+    <t>Договора с клиентами и подрядчиками + CRM</t>
+  </si>
+  <si>
+    <t>Взаимодействие внутри компании</t>
+  </si>
+  <si>
+    <t>Базовый Яндекс 360 на 10 сотрудников</t>
+  </si>
+  <si>
+    <t>Вариант внедрения СИТ</t>
   </si>
 </sst>
 </file>
@@ -469,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -490,6 +502,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,7 +524,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -954,23 +967,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD30134-F3FA-4385-98EF-7296467FA611}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" hidden="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -978,23 +991,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:6" hidden="1"/>
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" hidden="1">
       <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
@@ -1008,7 +1022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
@@ -1022,23 +1036,24 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="7" spans="1:6" hidden="1"/>
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1060,7 +1075,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1071,23 +1086,24 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="13" spans="1:6" hidden="1"/>
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" hidden="1">
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1101,7 +1117,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
@@ -1115,23 +1131,23 @@
         <v>14990</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:6" hidden="1">
+      <c r="A19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -1143,7 +1159,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -1158,13 +1174,13 @@
       <c r="D21" s="12"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="8"/>
       <c r="B22" s="13"/>
       <c r="C22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="7" t="s">
         <v>42</v>
       </c>
@@ -1172,15 +1188,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1191,12 +1207,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="27" spans="1:6" hidden="1"/>
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1207,12 +1224,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="30" spans="1:6" hidden="1"/>
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -1223,12 +1241,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="33" spans="1:5" hidden="1"/>
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -1239,13 +1258,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="14" t="s">
+    <row r="36" spans="1:5" hidden="1"/>
+    <row r="37" spans="1:5" hidden="1">
+      <c r="A37" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="5" t="s">
         <v>44</v>
       </c>
@@ -1253,7 +1273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -1262,20 +1282,24 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="42" spans="1:5">
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1286,83 +1310,118 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="11">
+    <row r="45" spans="1:5">
+      <c r="B45" s="22">
         <f>B44*12</f>
         <v>24000</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="22">
+        <v>1840</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="22">
+        <f>B51*12</f>
+        <v>24000</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="11">
-        <f>130*3</f>
-        <v>390</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="B55" s="11">
+        <v>0</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="11">
+        <f>130*10</f>
+        <v>1300</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="B48" s="11">
-        <f>B47*12</f>
-        <v>4680</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+    <row r="59" spans="1:3">
+      <c r="B59" s="22">
+        <f>B58*12</f>
+        <v>15600</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="14">
+        <f>B45+B48+B52+B55+B59</f>
+        <v>65440</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="B50" s="11">
-        <v>1840</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="11">
-        <v>0</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="21">
-        <f>B45+B48+B50</f>
-        <v>30520</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Отчёт об эффективности СИТ Колонин/Отчёт об эффективности СИТ.xlsx
+++ b/Отчёт об эффективности СИТ Колонин/Отчёт об эффективности СИТ.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\SIT\Отчёт об эффективности СИТ Колонин\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2786261-3E67-4C42-906F-B5326372EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60375009-4499-44F5-878B-9C708B3F5160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14775" yWindow="7770" windowWidth="14970" windowHeight="9270" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Входные данные" sheetId="1" r:id="rId1"/>
-    <sheet name="Задание 1" sheetId="2" r:id="rId2"/>
-    <sheet name="ПО Внедряемое в отделы" sheetId="3" r:id="rId3"/>
+    <sheet name="ПО Внедряемое в отделы" sheetId="3" r:id="rId2"/>
+    <sheet name="Необходимое оборудование" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
   <si>
     <t>Компания</t>
   </si>
@@ -84,68 +84,6 @@
   </si>
   <si>
     <t>Число сотрудников</t>
-  </si>
-  <si>
-    <r>
-      <t>З</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>адание: подготовить отчет руководителю компании о том, насколько эффективно используются </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>СИТ в работе предприятия, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>как можно использовать информационные системы в интересах всех его структурных подразделений с учетом бизнес-процессов предприятия</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Представить результаты работы в виде отчета руководителю компании  </t>
   </si>
   <si>
     <t>Основными бизнес-процессами в компании являются :</t>
@@ -304,15 +242,9 @@
     <t>Mas Project</t>
   </si>
   <si>
-    <t>Итого:</t>
-  </si>
-  <si>
     <t>Инструменты менеджеров по продажам</t>
   </si>
   <si>
-    <t>•Сайт на Tilda или CMS WordPress</t>
-  </si>
-  <si>
     <t>Договора с клиентами и подрядчиками + CRM</t>
   </si>
   <si>
@@ -323,6 +255,90 @@
   </si>
   <si>
     <t>Вариант внедрения СИТ</t>
+  </si>
+  <si>
+    <t>•Сайт на Tilda</t>
+  </si>
+  <si>
+    <t>Первичная разработка сайта для публикации</t>
+  </si>
+  <si>
+    <t>Инструменты</t>
+  </si>
+  <si>
+    <t>Стоимость внедрения</t>
+  </si>
+  <si>
+    <t>Необходимые действия</t>
+  </si>
+  <si>
+    <t>Перенос всей бухгалтерии в программу</t>
+  </si>
+  <si>
+    <t>Оформление подписки</t>
+  </si>
+  <si>
+    <t>Разработка дизайна, функционала</t>
+  </si>
+  <si>
+    <t>Настройка необходимых интеграций и т.д.</t>
+  </si>
+  <si>
+    <t>Подключение интеграций.</t>
+  </si>
+  <si>
+    <t>Постепенное формирование клиентской базы</t>
+  </si>
+  <si>
+    <t>Изучение функционала и т.д.</t>
+  </si>
+  <si>
+    <t>Обучение персонала.</t>
+  </si>
+  <si>
+    <t>Недель</t>
+  </si>
+  <si>
+    <t>Недель на внедрение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внесение ассортимента в программу. </t>
+  </si>
+  <si>
+    <t>Настройка под нужды предприятия</t>
+  </si>
+  <si>
+    <t>Стоимость и время на внедрение</t>
+  </si>
+  <si>
+    <t>Кто из сотрудников нуждается в аппаратуре</t>
+  </si>
+  <si>
+    <t>Итого нужно пк</t>
+  </si>
+  <si>
+    <t>Сколько ПК нужно</t>
+  </si>
+  <si>
+    <t>https://club.dns-shop.ru/blog/t-325-sborka-computera/27745-budjetnaya-ofisnaya-sborka-za-15-000-rublei-mart-2020/</t>
+  </si>
+  <si>
+    <t>Дешевая стоимость офисного ПК</t>
+  </si>
+  <si>
+    <t>Тренинги и прочее</t>
+  </si>
+  <si>
+    <t>Необходимая аппаратура</t>
+  </si>
+  <si>
+    <t>Интернет  и прочее</t>
+  </si>
+  <si>
+    <t>7 компьютеров</t>
+  </si>
+  <si>
+    <t>Интернет и прочее</t>
   </si>
 </sst>
 </file>
@@ -332,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,31 +372,6 @@
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <u/>
@@ -397,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +404,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,13 +484,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -497,12 +500,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,7 +540,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -540,6 +557,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11847</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3BE693-9198-47CC-B780-864FA87EA2FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7467600" y="1771650"/>
+          <a:ext cx="6726972" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,7 +891,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B16" sqref="A12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -827,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -853,25 +936,25 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="195">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -938,93 +1021,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8797FD18-51A1-48BE-AFAD-1F417C5ACA46}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD30134-F3FA-4385-98EF-7296467FA611}">
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="91.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="120" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="90.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD30134-F3FA-4385-98EF-7296467FA611}">
-  <dimension ref="A1:F62"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
     <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1">
       <c r="A1" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1"/>
     <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" hidden="1">
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1">
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="11">
         <v>20000</v>
@@ -1039,34 +1094,34 @@
     <row r="7" spans="1:6" hidden="1"/>
     <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" hidden="1">
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1">
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="11">
         <v>1200</v>
@@ -1077,7 +1132,7 @@
     </row>
     <row r="12" spans="1:6" hidden="1">
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="11">
         <v>2300</v>
@@ -1089,37 +1144,37 @@
     <row r="13" spans="1:6" hidden="1"/>
     <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" hidden="1">
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1">
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="11">
         <v>4990</v>
@@ -1138,30 +1193,30 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" hidden="1">
-      <c r="A19" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="11">
         <f>D6+D11+D17</f>
@@ -1182,10 +1237,10 @@
     </row>
     <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" hidden="1">
@@ -1193,239 +1248,473 @@
     </row>
     <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="11">
         <v>13400</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1"/>
     <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="11">
         <v>2000</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1"/>
     <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="11">
         <v>2600</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1"/>
     <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" s="11">
         <v>2000</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1"/>
     <row r="37" spans="1:5" hidden="1">
-      <c r="A37" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="16"/>
+      <c r="A37" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="23"/>
     </row>
     <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="11">
         <f>B26+B29+B32+B35</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="17.25" customHeight="1">
       <c r="A41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" customHeight="1"/>
+    <row r="43" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A43" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="18">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5"/>
+      <c r="B47" s="15">
+        <f>B46*12</f>
+        <v>24000</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
+      <c r="B50" s="15">
+        <v>1840</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="11">
+      <c r="D50" s="18">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="11">
         <v>2000</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45" s="22">
-        <f>B44*12</f>
+      <c r="C53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5"/>
+      <c r="B54" s="15">
+        <f>B53*12</f>
         <v>24000</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="C54" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="22">
-        <v>1840</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="15">
+        <v>4000</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="18">
+        <v>3</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="15">
+        <v>0</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="18">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="11">
-        <v>2000</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="22">
-        <f>B51*12</f>
-        <v>24000</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="11">
-        <v>0</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="11">
+      <c r="B63" s="11">
         <f>130*10</f>
         <v>1300</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="B59" s="22">
-        <f>B58*12</f>
+      <c r="C63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5"/>
+      <c r="B64" s="15">
+        <f>B63*12</f>
         <v>15600</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="14">
-        <f>B45+B48+B52+B55+B59</f>
-        <v>65440</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>64</v>
+      <c r="C64" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="15">
+        <v>10000</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="18">
+        <v>3</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="5"/>
+      <c r="B71" s="15">
+        <f>B70*12</f>
+        <v>12000</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="11">
+        <f>15000*7</f>
+        <v>105000</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="11"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="14">
+        <f>B47+B50+B54+B56+B60+B64+B66+B71+B73</f>
+        <v>196440</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="16">
+        <f>D46+D50+D53+D56+D60+D66</f>
+        <v>10</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C9:E9"/>
@@ -1434,4 +1723,125 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC0ECBD-0894-4A7C-B01B-F77FEACD1102}">
+  <dimension ref="B3:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13">
+      <c r="B3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="29">
+        <f>C4+C5+C6+C7</f>
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>15000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="11">
+        <v>12000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Отчёт об эффективности СИТ Колонин/Отчёт об эффективности СИТ.xlsx
+++ b/Отчёт об эффективности СИТ Колонин/Отчёт об эффективности СИТ.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\SIT\Отчёт об эффективности СИТ Колонин\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60375009-4499-44F5-878B-9C708B3F5160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950BAD79-115D-40D0-A8B6-1588B4BC3332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Входные данные" sheetId="1" r:id="rId1"/>
     <sheet name="ПО Внедряемое в отделы" sheetId="3" r:id="rId2"/>
     <sheet name="Необходимое оборудование" sheetId="4" r:id="rId3"/>
+    <sheet name="Обратная связь" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
   <si>
     <t>Компания</t>
   </si>
@@ -339,6 +340,42 @@
   </si>
   <si>
     <t>Интернет и прочее</t>
+  </si>
+  <si>
+    <t>USB ключи Tensor</t>
+  </si>
+  <si>
+    <t>Электронные подписи для повышения безопасности</t>
+  </si>
+  <si>
+    <t>InSales - лучше, чем Tilda, т.к. интеграция с множеством сервисов и маркетплейсов</t>
+  </si>
+  <si>
+    <t>Нужны веб камеры, чтобы проводить онлайн созвоны</t>
+  </si>
+  <si>
+    <t>2х Факторная аутентификация для Бухгалтеров и прочих сотрудников</t>
+  </si>
+  <si>
+    <t>На складе нужны видеокамеры</t>
+  </si>
+  <si>
+    <t>Регулярная смена ключей (кодовые ключи)</t>
+  </si>
+  <si>
+    <t>AnyDesk для удаленной помощи</t>
+  </si>
+  <si>
+    <t>Для контроля эффективности сотрудников</t>
+  </si>
+  <si>
+    <t>Жесткие дедлайны с KPI</t>
+  </si>
+  <si>
+    <t>MyTarget - для таргетированной рекламы</t>
+  </si>
+  <si>
+    <t>И Таскменеджеры</t>
   </si>
 </sst>
 </file>
@@ -516,6 +553,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,23 +573,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -557,72 +594,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11847</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3BE693-9198-47CC-B780-864FA87EA2FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7467600" y="1771650"/>
-          <a:ext cx="6726972" cy="3724275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1024,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD30134-F3FA-4385-98EF-7296467FA611}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
@@ -1056,12 +1027,12 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" hidden="1">
       <c r="C5" s="5" t="s">
@@ -1101,11 +1072,11 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" hidden="1">
@@ -1151,12 +1122,12 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" hidden="1">
       <c r="C16" s="5" t="s">
@@ -1193,11 +1164,11 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" hidden="1">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1315,10 +1286,10 @@
     </row>
     <row r="36" spans="1:5" hidden="1"/>
     <row r="37" spans="1:5" hidden="1">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="28"/>
     </row>
     <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="5" t="s">
@@ -1350,10 +1321,10 @@
       <c r="A43" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="19" t="s">
         <v>85</v>
       </c>
@@ -1626,13 +1597,13 @@
       <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="5"/>
@@ -1730,7 +1701,7 @@
   <dimension ref="B3:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1807,10 +1778,10 @@
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="21">
         <f>C4+C5+C6+C7</f>
         <v>7</v>
       </c>
@@ -1842,6 +1813,83 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD590DD0-3708-44E6-938A-B1C21FC4EC3C}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Отчёт об эффективности СИТ Колонин/Отчёт об эффективности СИТ.xlsx
+++ b/Отчёт об эффективности СИТ Колонин/Отчёт об эффективности СИТ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\SIT\Отчёт об эффективности СИТ Колонин\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950BAD79-115D-40D0-A8B6-1588B4BC3332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C953E4AD-FBB0-45C4-8168-98D3C0E3CD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD590DD0-3708-44E6-938A-B1C21FC4EC3C}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
